--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1426790.781607937</v>
+        <v>-1428689.013712061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>155.242980066263</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>160.1961487468638</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>54.32160039817388</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>177.9030419918643</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>178.3400007346269</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="S7" t="n">
-        <v>140.1965940131587</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134.9314523901461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>120.1202051330291</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.0566567996924</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.88638099191805</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>245.7870269699295</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>136.8402217474554</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>12.90368342835884</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.56457541093542</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>237.9658439233606</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>124.3958428051364</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>204.1553527130144</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>53.53710838919417</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>220.6182101447862</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>47.27820527287669</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.73708901409875</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898666</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463055</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373612</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789448</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463138</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1703.566937845283</v>
+        <v>1039.703785687808</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2480.306109885217</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2480.306109885217</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>2480.306109885217</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X2" t="n">
-        <v>2480.306109885217</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.166777909405</v>
+        <v>1426.30362575193</v>
       </c>
     </row>
     <row r="3">
@@ -4401,13 +4401,13 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870807</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870807</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>760.2723052017247</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>1357.611901588238</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>1357.611901588238</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>971.8236489899937</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>560.8377442003862</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2517.007676134761</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.245890772852</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2263.245890772852</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1910.477235502738</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1537.011477241658</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1146.872145265846</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="S7" t="n">
-        <v>586.5162629810213</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="T7" t="n">
-        <v>359.2080756496231</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="U7" t="n">
-        <v>359.2080756496231</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="V7" t="n">
-        <v>359.2080756496231</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="W7" t="n">
-        <v>359.2080756496231</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2080756496231</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2080756496231</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>1748.280186455193</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.946714969783</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1095.807382993971</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>402.6523129118469</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>402.6523129118469</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>512.2963347852319</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>512.2963347852319</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>512.2963347852319</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>358.8683222506741</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1050.726536261405</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>761.3093662244439</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>761.3093662244439</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>540.5167870809138</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.3526312522299</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>235.4395376698368</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>951.1017181597769</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>696.41722995389</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>696.41722995389</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>468.4276790558727</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.6350999123426</v>
+        <v>565.0010960824696</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>524.8400981009108</v>
+        <v>472.1975378985032</v>
       </c>
       <c r="C19" t="n">
-        <v>524.8400981009108</v>
+        <v>303.2613549705964</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
         <v>208.7516828383384</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>745.632677244441</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>745.632677244441</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X19" t="n">
-        <v>745.632677244441</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="Y19" t="n">
-        <v>524.8400981009108</v>
+        <v>653.846002728743</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>474.8900731662877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4221461351941</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1262.188800649893</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1262.188800649893</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>973.0601618634512</v>
+        <v>1292.698742564959</v>
       </c>
       <c r="V22" t="n">
-        <v>973.0601618634512</v>
+        <v>1038.014254359072</v>
       </c>
       <c r="W22" t="n">
-        <v>973.0601618634512</v>
+        <v>748.5970843221111</v>
       </c>
       <c r="X22" t="n">
-        <v>745.0706109654338</v>
+        <v>748.5970843221111</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.0706109654338</v>
+        <v>527.8045051785809</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5990,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6072,19 +6072,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>599.9410747082369</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C25" t="n">
-        <v>431.00489178033</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>1052.284178433483</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="X25" t="n">
-        <v>781.5895395384766</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="Y25" t="n">
-        <v>781.5895395384766</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.3055067228584</v>
+        <v>144.9728543621815</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3055067228584</v>
+        <v>144.9728543621815</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>144.9728543621815</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1443.626281654772</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1443.626281654772</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1219.840866444278</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>930.7122276578364</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>930.7122276578364</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W28" t="n">
-        <v>641.2950576208757</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X28" t="n">
-        <v>413.3055067228584</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.3055067228584</v>
+        <v>326.6213191924212</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103121</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.0503551525399</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556558</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.687808515591</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>1943.227873734288</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,31 +7801,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7834,7 +7834,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>62.91120742583806</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>213.2603911806631</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P27" t="n">
-        <v>5.100663089360268</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2863157167186</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>134.4977453535109</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10668,10 +10668,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>213.260391180663</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>242.9997743936052</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>182.034074286795</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>213.2603911806632</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4907425995084</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>89.6443122205376</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,10 +23473,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>6.350616353898459</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>8.5808262754758</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>273.3336689702185</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>55.05089760727694</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>14.17179940046736</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>73.52496717846684</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.08199968556298</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>95.07836462901818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>31.51943317904184</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.15575737369248</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.22726338969405</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.037392394209746e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1272679.805056964</v>
+        <v>1272679.805056963</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1272679.805056964</v>
+        <v>1272679.805056963</v>
       </c>
     </row>
     <row r="10">
@@ -26317,16 +26317,16 @@
         <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="G2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="H2" t="n">
         <v>117308.7179213126</v>
@@ -26338,16 +26338,16 @@
         <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796425</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371244</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161410.6210996772</v>
+        <v>161410.6210996773</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687079</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819123</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819121</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-712190.9371740503</v>
+        <v>-712209.4309119846</v>
       </c>
       <c r="C6" t="n">
         <v>-125335.6803702914</v>
@@ -26528,40 +26528,40 @@
         <v>-125335.6803702914</v>
       </c>
       <c r="E6" t="n">
-        <v>-522013.252091171</v>
+        <v>-522110.711217143</v>
       </c>
       <c r="F6" t="n">
-        <v>3146.784385725172</v>
+        <v>3049.325259753095</v>
       </c>
       <c r="G6" t="n">
-        <v>3146.784385725201</v>
+        <v>3049.325259753051</v>
       </c>
       <c r="H6" t="n">
-        <v>3146.784385725259</v>
+        <v>3049.325259753051</v>
       </c>
       <c r="I6" t="n">
-        <v>3146.784385725317</v>
+        <v>3049.325259753153</v>
       </c>
       <c r="J6" t="n">
-        <v>-173276.4348068678</v>
+        <v>-173373.8939328399</v>
       </c>
       <c r="K6" t="n">
-        <v>-73657.74727228648</v>
+        <v>-73657.74727228658</v>
       </c>
       <c r="L6" t="n">
-        <v>-19152.23516857416</v>
+        <v>-19152.235168574</v>
       </c>
       <c r="M6" t="n">
         <v>-153953.2504024112</v>
       </c>
       <c r="N6" t="n">
-        <v>-19152.23516857403</v>
+        <v>-19152.23516857404</v>
       </c>
       <c r="O6" t="n">
-        <v>-19152.23516857406</v>
+        <v>-19152.23516857404</v>
       </c>
       <c r="P6" t="n">
-        <v>-73657.74727228658</v>
+        <v>-73657.74727228655</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26762,13 +26762,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>210.0299117047445</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>91.0280187614255</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>112.988201860877</v>
       </c>
       <c r="H4" t="n">
-        <v>25.68014624228672</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>136.0653431684996</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>235.8811280289307</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>38.10831962303092</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>140.0691763617893</v>
       </c>
       <c r="S7" t="n">
-        <v>71.94894493686016</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>247.8023892733345</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>245.1526866379785</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>2.253145459358507</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>187.1487244661662</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>535.7175786218068</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>213.4866460137773</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>495.6240934217712</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36674,28 +36674,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P27" t="n">
-        <v>212.1940780208849</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>451.6500179578267</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37087,7 +37087,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>444.9221224039771</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37169,7 +37169,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>420.3538061121876</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>553.4241514440714</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>389.1274892183196</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>363.8358297686024</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
